--- a/ADS Coursework - TSP/report/experimental_data.xlsx
+++ b/ADS Coursework - TSP/report/experimental_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Work\ADS\cw repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Work\ADS\cw repo\ADS Coursework - TSP\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -212,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -232,23 +232,29 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5949,7 +5955,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="129" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5960,7 +5966,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="129" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5971,7 +5977,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="105" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -5983,7 +5989,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="105" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -5995,7 +6001,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="105" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -6007,7 +6013,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9310872" cy="6084186"/>
+    <xdr:ext cx="9308171" cy="6078963"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6061,7 +6067,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10261023" cy="7143750"/>
+    <xdr:ext cx="10269682" cy="7143750"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6088,7 +6094,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10261023" cy="7143750"/>
+    <xdr:ext cx="10287000" cy="7157357"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6115,7 +6121,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10261023" cy="7143750"/>
+    <xdr:ext cx="10287000" cy="7157357"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6403,8 +6409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6434,64 +6440,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="H1" s="13" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="H1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="N1" s="13" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="N1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="T1" s="13" t="s">
+      <c r="O1" s="16"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="T1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="13"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="H2" s="15" t="s">
+      <c r="E2" s="18"/>
+      <c r="H2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="N2" s="15" t="s">
+      <c r="K2" s="13"/>
+      <c r="N2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="16" t="s">
+      <c r="O2" s="13"/>
+      <c r="P2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="15"/>
-      <c r="T2" s="15" t="s">
+      <c r="Q2" s="13"/>
+      <c r="T2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="16" t="s">
+      <c r="U2" s="13"/>
+      <c r="V2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="15"/>
+      <c r="W2" s="13"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -7254,64 +7260,64 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="H15" s="13" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="H15" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="N15" s="13" t="s">
+      <c r="I15" s="16"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="N15" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="13"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="T15" s="13" t="s">
+      <c r="O15" s="16"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="T15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="U15" s="13"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="16" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="H16" s="15" t="s">
+      <c r="E16" s="13"/>
+      <c r="H16" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="16" t="s">
+      <c r="I16" s="14"/>
+      <c r="J16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="15"/>
-      <c r="N16" s="15" t="s">
+      <c r="K16" s="13"/>
+      <c r="N16" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="O16" s="18"/>
-      <c r="P16" s="16" t="s">
+      <c r="O16" s="14"/>
+      <c r="P16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q16" s="15"/>
-      <c r="T16" s="15" t="s">
+      <c r="Q16" s="13"/>
+      <c r="T16" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="U16" s="18"/>
-      <c r="V16" s="16" t="s">
+      <c r="U16" s="14"/>
+      <c r="V16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W16" s="15"/>
+      <c r="W16" s="13"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
@@ -8015,22 +8021,22 @@
         <f>AVERAGE(E18:E27)</f>
         <v>41982.406971895092</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="22" t="s">
         <v>16</v>
       </c>
       <c r="H28">
         <f>AVERAGE(H18:H27)</f>
         <v>13.3</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="9">
         <f>AVERAGE(I18:I27)</f>
         <v>296543.88905721199</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="12">
         <f>AVERAGE(J18:J27)</f>
         <v>1102.4000000000001</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="9">
         <f>AVERAGE(K18:K27)</f>
         <v>281530.52104881068</v>
       </c>
@@ -8041,7 +8047,7 @@
         <f>AVERAGE(N18:N27)</f>
         <v>44.2</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="9">
         <f>AVERAGE(O18:O27)</f>
         <v>90517.890018195598</v>
       </c>
@@ -8049,7 +8055,7 @@
         <f>AVERAGE(P18:P27)</f>
         <v>8113.1</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="9">
         <f>AVERAGE(Q18:Q27)</f>
         <v>87664.56789116397</v>
       </c>
@@ -8074,37 +8080,37 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="N29" s="13" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="N29" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
       <c r="V29" s="11"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="16" t="s">
+      <c r="C30" s="14"/>
+      <c r="D30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="15"/>
-      <c r="N30" s="15" t="s">
+      <c r="E30" s="13"/>
+      <c r="N30" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="O30" s="18"/>
-      <c r="P30" s="16" t="s">
+      <c r="O30" s="14"/>
+      <c r="P30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q30" s="15"/>
+      <c r="Q30" s="13"/>
       <c r="V30" s="11"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -8163,7 +8169,7 @@
         <f>AVERAGE(B4:B13)</f>
         <v>0.6</v>
       </c>
-      <c r="O32" s="10">
+      <c r="O32" s="21">
         <f>AVERAGE(C4:C13)</f>
         <v>8980.9182793291875</v>
       </c>
@@ -8199,7 +8205,7 @@
         <f>AVERAGE(H4:H13)</f>
         <v>1</v>
       </c>
-      <c r="O33" s="10">
+      <c r="O33" s="21">
         <f>AVERAGE(I4:I13)</f>
         <v>825.24232272774384</v>
       </c>
@@ -8235,7 +8241,7 @@
         <f>AVERAGE(N4:N13)</f>
         <v>1.6</v>
       </c>
-      <c r="O34" s="10">
+      <c r="O34" s="21">
         <f>AVERAGE(O4:O13)</f>
         <v>54669.0264149633</v>
       </c>
@@ -8271,7 +8277,7 @@
         <f>AVERAGE(T4:T13)</f>
         <v>5.8</v>
       </c>
-      <c r="O35" s="10">
+      <c r="O35" s="21">
         <f>AVERAGE(U4:U13)</f>
         <v>3241.4668367219497</v>
       </c>
@@ -8307,7 +8313,7 @@
         <f>AVERAGE(B18:B27)</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="O36" s="10">
+      <c r="O36" s="21">
         <f>AVERAGE(C18:C27)</f>
         <v>43646.373961317106</v>
       </c>
@@ -8343,7 +8349,7 @@
         <f>AVERAGE(H18:H27)</f>
         <v>13.3</v>
       </c>
-      <c r="O37" s="10">
+      <c r="O37" s="21">
         <f>AVERAGE(I18:I27)</f>
         <v>296543.88905721199</v>
       </c>
@@ -8379,7 +8385,7 @@
         <f>AVERAGE(N18:N27)</f>
         <v>44.2</v>
       </c>
-      <c r="O38" s="10">
+      <c r="O38" s="21">
         <f>AVERAGE(O18:O27)</f>
         <v>90517.890018195598</v>
       </c>
@@ -8415,7 +8421,7 @@
         <f>AVERAGE(T18:T27)</f>
         <v>137.1</v>
       </c>
-      <c r="O39" s="10">
+      <c r="O39" s="21">
         <f>AVERAGE(U18:U27)</f>
         <v>35362.50655728639</v>
       </c>
@@ -8451,7 +8457,7 @@
         <f>AVERAGE(B32:B41)</f>
         <v>336.4</v>
       </c>
-      <c r="O40" s="10">
+      <c r="O40" s="21">
         <f>AVERAGE(C32:C41)</f>
         <v>707498.63075170584</v>
       </c>
@@ -8506,22 +8512,22 @@
         <f>AVERAGE(E32:E41)</f>
         <v>672798.02977894177</v>
       </c>
-      <c r="N42" s="13" t="s">
+      <c r="N42" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N43" s="15" t="s">
+      <c r="N43" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="O43" s="18"/>
-      <c r="P43" s="16" t="s">
+      <c r="O43" s="14"/>
+      <c r="P43" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q43" s="15"/>
+      <c r="Q43" s="13"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M44" s="7" t="s">
@@ -8548,7 +8554,7 @@
         <f>N32/N32</f>
         <v>1</v>
       </c>
-      <c r="O45" s="12">
+      <c r="O45" s="19">
         <f>O32/O32</f>
         <v>1</v>
       </c>
@@ -8578,7 +8584,7 @@
         <f t="shared" ref="N46:N53" si="0">N33/N33</f>
         <v>1</v>
       </c>
-      <c r="O46" s="12">
+      <c r="O46" s="20">
         <f t="shared" ref="O46:O53" si="1">O33/O33</f>
         <v>1</v>
       </c>
@@ -8608,7 +8614,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O47" s="12">
+      <c r="O47" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -8630,7 +8636,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O48" s="12">
+      <c r="O48" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -8652,7 +8658,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O49" s="12">
+      <c r="O49" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -8674,7 +8680,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O50" s="12">
+      <c r="O50" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -8696,7 +8702,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O51" s="12">
+      <c r="O51" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -8718,7 +8724,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O52" s="12">
+      <c r="O52" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -8740,7 +8746,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O53" s="12">
+      <c r="O53" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -8758,23 +8764,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="J16:K16"/>
     <mergeCell ref="N15:Q15"/>
     <mergeCell ref="T15:W15"/>
     <mergeCell ref="B15:E15"/>
@@ -8791,6 +8780,23 @@
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ADS Coursework - TSP/report/experimental_data.xlsx
+++ b/ADS Coursework - TSP/report/experimental_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -232,14 +232,11 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -247,14 +244,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -307,14 +307,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Average</a:t>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Efficacy of Both Algorithms Compared</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Route Length Results Over Multiple Problem Instances of Different Sizes</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
+            <a:endParaRPr lang="en-GB" sz="1800">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -599,14 +602,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Number</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:rPr lang="en-GB" sz="1400" baseline="0"/>
                   <a:t> of Cities, n</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB"/>
+                <a:endParaRPr lang="en-GB" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -712,7 +715,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -725,7 +728,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400" baseline="0"/>
                   <a:t>Route Length / units</a:t>
                 </a:r>
               </a:p>
@@ -752,7 +755,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -784,7 +787,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -826,7 +829,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -859,12 +862,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -916,15 +914,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" sz="1400" b="0" i="0" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Average Route Length Results as a Ratio</a:t>
+              <a:t>Efficacy of Both Algorithms Compared Using Ratios</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB" sz="1400">
+            <a:endParaRPr lang="en-GB">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -1162,7 +1157,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1175,7 +1170,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
@@ -1205,7 +1200,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1243,7 +1238,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1308,7 +1303,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
@@ -1370,7 +1365,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1413,7 +1408,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1438,12 +1433,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -5955,10 +5945,11 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="104" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -5966,10 +5957,11 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="104" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -6001,7 +5993,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="105" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -6013,7 +6005,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9308171" cy="6078963"/>
+    <xdr:ext cx="10276010" cy="7162067"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6040,7 +6032,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9310872" cy="6084186"/>
+    <xdr:ext cx="10276010" cy="7162067"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6067,7 +6059,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10269682" cy="7143750"/>
+    <xdr:ext cx="10287000" cy="7157357"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6409,8 +6401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43:Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6440,64 +6432,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="H1" s="16" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="H1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="N1" s="16" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="N1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="T1" s="16" t="s">
+      <c r="O1" s="17"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="T1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="16"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="H2" s="13" t="s">
+      <c r="E2" s="21"/>
+      <c r="H2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="15" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="N2" s="13" t="s">
+      <c r="K2" s="19"/>
+      <c r="N2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="15" t="s">
+      <c r="O2" s="19"/>
+      <c r="P2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="13"/>
-      <c r="T2" s="13" t="s">
+      <c r="Q2" s="19"/>
+      <c r="T2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="13"/>
-      <c r="V2" s="15" t="s">
+      <c r="U2" s="19"/>
+      <c r="V2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="13"/>
+      <c r="W2" s="19"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -7260,64 +7252,64 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="H15" s="16" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="H15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="N15" s="16" t="s">
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="N15" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="16"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="T15" s="16" t="s">
+      <c r="O15" s="17"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="T15" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="U15" s="16"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="H16" s="13" t="s">
+      <c r="E16" s="19"/>
+      <c r="H16" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15" t="s">
+      <c r="I16" s="22"/>
+      <c r="J16" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="13"/>
-      <c r="N16" s="13" t="s">
+      <c r="K16" s="19"/>
+      <c r="N16" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="O16" s="14"/>
-      <c r="P16" s="15" t="s">
+      <c r="O16" s="22"/>
+      <c r="P16" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="Q16" s="13"/>
-      <c r="T16" s="13" t="s">
+      <c r="Q16" s="19"/>
+      <c r="T16" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="U16" s="14"/>
-      <c r="V16" s="15" t="s">
+      <c r="U16" s="22"/>
+      <c r="V16" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="W16" s="13"/>
+      <c r="W16" s="19"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
@@ -8021,7 +8013,7 @@
         <f>AVERAGE(E18:E27)</f>
         <v>41982.406971895092</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="16" t="s">
         <v>16</v>
       </c>
       <c r="H28">
@@ -8080,37 +8072,37 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="N29" s="16" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="N29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
       <c r="V29" s="11"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15" t="s">
+      <c r="C30" s="22"/>
+      <c r="D30" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="N30" s="13" t="s">
+      <c r="E30" s="19"/>
+      <c r="N30" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="O30" s="14"/>
-      <c r="P30" s="15" t="s">
+      <c r="O30" s="22"/>
+      <c r="P30" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="Q30" s="13"/>
+      <c r="Q30" s="19"/>
       <c r="V30" s="11"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -8169,7 +8161,7 @@
         <f>AVERAGE(B4:B13)</f>
         <v>0.6</v>
       </c>
-      <c r="O32" s="21">
+      <c r="O32" s="15">
         <f>AVERAGE(C4:C13)</f>
         <v>8980.9182793291875</v>
       </c>
@@ -8205,7 +8197,7 @@
         <f>AVERAGE(H4:H13)</f>
         <v>1</v>
       </c>
-      <c r="O33" s="21">
+      <c r="O33" s="15">
         <f>AVERAGE(I4:I13)</f>
         <v>825.24232272774384</v>
       </c>
@@ -8241,7 +8233,7 @@
         <f>AVERAGE(N4:N13)</f>
         <v>1.6</v>
       </c>
-      <c r="O34" s="21">
+      <c r="O34" s="15">
         <f>AVERAGE(O4:O13)</f>
         <v>54669.0264149633</v>
       </c>
@@ -8277,7 +8269,7 @@
         <f>AVERAGE(T4:T13)</f>
         <v>5.8</v>
       </c>
-      <c r="O35" s="21">
+      <c r="O35" s="15">
         <f>AVERAGE(U4:U13)</f>
         <v>3241.4668367219497</v>
       </c>
@@ -8313,7 +8305,7 @@
         <f>AVERAGE(B18:B27)</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="O36" s="21">
+      <c r="O36" s="15">
         <f>AVERAGE(C18:C27)</f>
         <v>43646.373961317106</v>
       </c>
@@ -8349,7 +8341,7 @@
         <f>AVERAGE(H18:H27)</f>
         <v>13.3</v>
       </c>
-      <c r="O37" s="21">
+      <c r="O37" s="15">
         <f>AVERAGE(I18:I27)</f>
         <v>296543.88905721199</v>
       </c>
@@ -8385,7 +8377,7 @@
         <f>AVERAGE(N18:N27)</f>
         <v>44.2</v>
       </c>
-      <c r="O38" s="21">
+      <c r="O38" s="15">
         <f>AVERAGE(O18:O27)</f>
         <v>90517.890018195598</v>
       </c>
@@ -8421,7 +8413,7 @@
         <f>AVERAGE(T18:T27)</f>
         <v>137.1</v>
       </c>
-      <c r="O39" s="21">
+      <c r="O39" s="15">
         <f>AVERAGE(U18:U27)</f>
         <v>35362.50655728639</v>
       </c>
@@ -8457,7 +8449,7 @@
         <f>AVERAGE(B32:B41)</f>
         <v>336.4</v>
       </c>
-      <c r="O40" s="21">
+      <c r="O40" s="15">
         <f>AVERAGE(C32:C41)</f>
         <v>707498.63075170584</v>
       </c>
@@ -8512,22 +8504,22 @@
         <f>AVERAGE(E32:E41)</f>
         <v>672798.02977894177</v>
       </c>
-      <c r="N42" s="16" t="s">
+      <c r="N42" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N43" s="13" t="s">
+      <c r="N43" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="O43" s="14"/>
-      <c r="P43" s="15" t="s">
+      <c r="O43" s="22"/>
+      <c r="P43" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="Q43" s="13"/>
+      <c r="Q43" s="19"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M44" s="7" t="s">
@@ -8554,7 +8546,7 @@
         <f>N32/N32</f>
         <v>1</v>
       </c>
-      <c r="O45" s="19">
+      <c r="O45" s="13">
         <f>O32/O32</f>
         <v>1</v>
       </c>
@@ -8584,7 +8576,7 @@
         <f t="shared" ref="N46:N53" si="0">N33/N33</f>
         <v>1</v>
       </c>
-      <c r="O46" s="20">
+      <c r="O46" s="14">
         <f t="shared" ref="O46:O53" si="1">O33/O33</f>
         <v>1</v>
       </c>
@@ -8614,7 +8606,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O47" s="20">
+      <c r="O47" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -8636,7 +8628,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O48" s="20">
+      <c r="O48" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -8658,7 +8650,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O49" s="20">
+      <c r="O49" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -8680,7 +8672,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O50" s="20">
+      <c r="O50" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -8702,7 +8694,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O51" s="20">
+      <c r="O51" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -8724,7 +8716,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O52" s="20">
+      <c r="O52" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -8746,7 +8738,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O53" s="20">
+      <c r="O53" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -8764,6 +8756,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="J16:K16"/>
     <mergeCell ref="N15:Q15"/>
     <mergeCell ref="T15:W15"/>
     <mergeCell ref="B15:E15"/>
@@ -8780,23 +8789,6 @@
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ADS Coursework - TSP/report/experimental_data.xlsx
+++ b/ADS Coursework - TSP/report/experimental_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,11 @@
     <sheet name="Efficiency" sheetId="5" r:id="rId4"/>
     <sheet name="Effiency Basic" sheetId="7" r:id="rId5"/>
     <sheet name="Effiency Enhanced" sheetId="8" r:id="rId6"/>
+    <sheet name="Efficacy (2)" sheetId="9" r:id="rId7"/>
+    <sheet name="Efficacy Ratios (2)" sheetId="10" r:id="rId8"/>
+    <sheet name="Efficiency (2)" sheetId="13" r:id="rId9"/>
+    <sheet name="Effiency Basic (2)" sheetId="11" r:id="rId10"/>
+    <sheet name="Effiency Enhanced (2)" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="20">
   <si>
     <t>Test</t>
   </si>
@@ -83,6 +88,12 @@
   </si>
   <si>
     <t>Ratios</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Route Length</t>
   </si>
 </sst>
 </file>
@@ -238,22 +249,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -873,6 +884,531 @@
     <a:p>
       <a:pPr>
         <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2400"/>
+              <a:t>Efficiency of Enhanced Algorithm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$P$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nearest Neighbour Enhanced</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Poly. Order 3</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$M$32:$M$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3795</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$P$32:$P$40</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1102.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8113.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45949</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>179763.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-80D2-40AA-9270-CD62AF618ED6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="465993656"/>
+        <c:axId val="465995296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="465993656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2000" baseline="0"/>
+                  <a:t>Number of Cities, n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465995296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="465995296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2000"/>
+                  <a:t>Run Time / ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465993656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3200,7 +3736,2485 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2400" b="0" i="0" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Efficacy of Both Algorithms Compared</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="2400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$N$30:$O$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nearest Neighbour Basic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Results!$M$32:$M$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3795</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Results!$O$32:$O$40</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8980.9182793291875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>825.24232272774384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54669.0264149633</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3241.4668367219497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43646.373961317106</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>296543.88905721199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90517.890018195598</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35362.50655728639</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>707498.63075170584</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A40B-4D7C-9C80-611FA0752FC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$P$30:$Q$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nearest Neighbour Enhanced</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Results!$M$32:$M$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3795</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Results!$Q$32:$Q$40</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8883.0950262112092</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>759.49701284547768</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50251.965517615645</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2920.3262210856929</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41982.406971895092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>281530.52104881068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87664.56789116397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34226.093401388047</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>672798.02977894177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A40B-4D7C-9C80-611FA0752FC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="551402712"/>
+        <c:axId val="551403040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="551402712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2000"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2000" baseline="0"/>
+                  <a:t> of Cities, n</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="2000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551403040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="551403040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2000" baseline="0"/>
+                  <a:t>Route Length / units</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.2743854710922892E-2"/>
+              <c:y val="0.37432764218582404"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551402712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="0"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Efficacy of Both Algorithms </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Compared</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Using</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> Ratios</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="2400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$N$43:$O$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nearest Neighbour Basic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Results!$M$45:$M$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3795</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Results!$O$45:$O$53</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-389A-4AD6-B662-7014A8C042CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$P$43:$Q$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nearest Neighbour Enhanced</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Results!$Q$45:$Q$53</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.98910765580139703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92033211570517548</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91920359320431078</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90092737892668928</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96187616889098848</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94937218886508634</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96847781000575617</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96786389691982433</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95095311925071113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-389A-4AD6-B662-7014A8C042CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="362678392"/>
+        <c:axId val="362678720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="362678392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Number of Cities, n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="362678720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="362678720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.05"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Route Length / units</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="362678392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2400"/>
+              <a:t>Efficiency of Both Algorithms Compared Using Logarithmic Scale</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$N$30:$O$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nearest Neighbour Basic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Poly. Order 2</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$M$32:$M$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3795</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$N$32:$N$40</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>137.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>336.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-755F-4EA6-8D3E-DCF7D889A5DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$P$30:$Q$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nearest Neighbour Enhanced</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Poly. Order 3</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$M$32:$M$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3795</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$P$32:$P$40</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1102.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8113.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45949</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>179763.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-755F-4EA6-8D3E-DCF7D889A5DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="233756432"/>
+        <c:axId val="559601120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="233756432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2000"/>
+                  <a:t>Number of Cities, n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="559601120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="559601120"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2000"/>
+                  <a:t>Run</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2000" baseline="0"/>
+                  <a:t> Time / ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="233756432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2400" baseline="0"/>
+              <a:t>Efficiency of Basic Algorithm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$N$30:$O$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nearest Neighbour Basic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Poly. Order 2</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$M$32:$M$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3795</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$N$32:$N$40</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>137.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>336.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C52-46D6-BC58-C9B14B1EBD1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="243013696"/>
+        <c:axId val="243014024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="243013696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2000"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2000" baseline="0"/>
+                  <a:t> of Cities, n</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="2000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="243014024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="243014024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="350"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2000" baseline="0"/>
+                  <a:t>Run Time / ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.2275971573876217E-2"/>
+              <c:y val="0.34086794848152241"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="243013696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3400,6 +6414,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3903,8 +7077,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3931,8 +7105,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4033,7 +7207,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4065,10 +7239,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4108,22 +7282,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4228,8 +7403,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4361,19 +7536,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4387,6 +7563,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4406,7 +7593,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4909,8 +8096,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4937,8 +8124,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5039,7 +8226,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5071,10 +8258,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5114,23 +8301,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5235,8 +8421,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5368,20 +8554,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5395,17 +8580,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5425,7 +8599,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5941,11 +9115,2564 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="104" workbookViewId="0" zoomToFit="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -5957,7 +11684,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="104" workbookViewId="0" zoomToFit="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -5969,7 +11696,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="105" workbookViewId="0" zoomToFit="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -5981,7 +11708,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="105" workbookViewId="0" zoomToFit="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -5993,7 +11720,55 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0" zoomToFit="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -6005,7 +11780,34 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10276010" cy="7162067"/>
+    <xdr:ext cx="10285252" cy="7165596"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="10267950" cy="7153275"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6032,7 +11834,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10276010" cy="7162067"/>
+    <xdr:ext cx="10285252" cy="7165596"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6059,7 +11861,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10287000" cy="7157357"/>
+    <xdr:ext cx="10269682" cy="7143750"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6086,7 +11888,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10287000" cy="7157357"/>
+    <xdr:ext cx="10269682" cy="7143750"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6114,6 +11916,114 @@
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="10287000" cy="7157357"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="10276514" cy="7165596"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="10267950" cy="7153275"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="10267950" cy="7153275"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="10267950" cy="7153275"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6401,8 +12311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43:Q43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6432,64 +12342,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="H1" s="17" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="H1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="N1" s="17" t="s">
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="N1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="T1" s="17" t="s">
+      <c r="O1" s="20"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="T1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="17"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="H2" s="19" t="s">
+      <c r="E2" s="22"/>
+      <c r="H2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="N2" s="19" t="s">
+      <c r="K2" s="17"/>
+      <c r="N2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="20" t="s">
+      <c r="O2" s="17"/>
+      <c r="P2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="19"/>
-      <c r="T2" s="19" t="s">
+      <c r="Q2" s="17"/>
+      <c r="T2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="19"/>
-      <c r="V2" s="20" t="s">
+      <c r="U2" s="17"/>
+      <c r="V2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="19"/>
+      <c r="W2" s="17"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -7252,64 +13162,64 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="H15" s="17" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="H15" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="N15" s="17" t="s">
+      <c r="I15" s="20"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="N15" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="17"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="T15" s="17" t="s">
+      <c r="O15" s="20"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="T15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="U15" s="17"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="20" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="H16" s="19" t="s">
+      <c r="E16" s="17"/>
+      <c r="H16" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="20" t="s">
+      <c r="I16" s="18"/>
+      <c r="J16" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="19"/>
-      <c r="N16" s="19" t="s">
+      <c r="K16" s="17"/>
+      <c r="N16" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="O16" s="22"/>
-      <c r="P16" s="20" t="s">
+      <c r="O16" s="18"/>
+      <c r="P16" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="Q16" s="19"/>
-      <c r="T16" s="19" t="s">
+      <c r="Q16" s="17"/>
+      <c r="T16" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="U16" s="22"/>
-      <c r="V16" s="20" t="s">
+      <c r="U16" s="18"/>
+      <c r="V16" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="W16" s="19"/>
+      <c r="W16" s="17"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
@@ -8072,37 +13982,37 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="N29" s="17" t="s">
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="N29" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
       <c r="V29" s="11"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="20" t="s">
+      <c r="C30" s="18"/>
+      <c r="D30" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="19"/>
-      <c r="N30" s="19" t="s">
+      <c r="E30" s="17"/>
+      <c r="N30" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="O30" s="22"/>
-      <c r="P30" s="20" t="s">
+      <c r="O30" s="18"/>
+      <c r="P30" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="Q30" s="19"/>
+      <c r="Q30" s="17"/>
       <c r="V30" s="11"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -8504,38 +14414,38 @@
         <f>AVERAGE(E32:E41)</f>
         <v>672798.02977894177</v>
       </c>
-      <c r="N42" s="17" t="s">
+      <c r="N42" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N43" s="19" t="s">
+      <c r="N43" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="O43" s="22"/>
-      <c r="P43" s="20" t="s">
+      <c r="O43" s="18"/>
+      <c r="P43" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="Q43" s="19"/>
+      <c r="Q43" s="17"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M44" s="7" t="s">
         <v>14</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
@@ -8756,23 +14666,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="J16:K16"/>
     <mergeCell ref="N15:Q15"/>
     <mergeCell ref="T15:W15"/>
     <mergeCell ref="B15:E15"/>
@@ -8789,6 +14682,23 @@
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
